--- a/exports/xuat_ban_vn_template.xlsx
+++ b/exports/xuat_ban_vn_template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dang.nguyenhai/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C9A52C6-E83B-E94A-B29F-5FEC3C06DB38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0962FD8D-2F53-2E46-9D9E-6CA14C7DA946}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="640" yWindow="700" windowWidth="27900" windowHeight="15620" xr2:uid="{8C537D27-372B-CB4A-AFD7-387935E050D1}"/>
   </bookViews>
@@ -411,6 +411,39 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -419,39 +452,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -824,17 +824,17 @@
   <dimension ref="A2:J30"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="134" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:F2"/>
+      <selection activeCell="B14" sqref="B14:C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="4.83203125" style="6" customWidth="1"/>
     <col min="2" max="2" width="33" style="6" customWidth="1"/>
-    <col min="3" max="3" width="17.5" style="7" customWidth="1"/>
+    <col min="3" max="3" width="22.1640625" style="7" customWidth="1"/>
     <col min="4" max="4" width="8.83203125" style="11" customWidth="1"/>
     <col min="5" max="5" width="14.6640625" style="7" customWidth="1"/>
-    <col min="6" max="6" width="21.1640625" style="11" customWidth="1"/>
+    <col min="6" max="6" width="18" style="11" customWidth="1"/>
     <col min="7" max="7" width="17.83203125" style="6" customWidth="1"/>
     <col min="8" max="9" width="10.6640625" style="6"/>
     <col min="10" max="10" width="35.33203125" style="6" customWidth="1"/>
@@ -842,61 +842,61 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:10">
-      <c r="D2" s="23"/>
-      <c r="E2" s="23"/>
-      <c r="F2" s="23"/>
+      <c r="D2" s="27"/>
+      <c r="E2" s="27"/>
+      <c r="F2" s="27"/>
       <c r="G2" s="8"/>
     </row>
     <row r="3" spans="1:10" ht="33" customHeight="1">
-      <c r="A3" s="21" t="s">
+      <c r="A3" s="32" t="s">
         <v>24</v>
       </c>
-      <c r="B3" s="21"/>
-      <c r="C3" s="21"/>
-      <c r="D3" s="21"/>
-      <c r="E3" s="21"/>
-      <c r="F3" s="21"/>
+      <c r="B3" s="32"/>
+      <c r="C3" s="32"/>
+      <c r="D3" s="32"/>
+      <c r="E3" s="32"/>
+      <c r="F3" s="32"/>
     </row>
     <row r="4" spans="1:10">
       <c r="B4" s="9"/>
-      <c r="C4" s="24" t="s">
+      <c r="C4" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="24"/>
-      <c r="E4" s="24"/>
-      <c r="F4" s="24"/>
+      <c r="D4" s="28"/>
+      <c r="E4" s="28"/>
+      <c r="F4" s="28"/>
     </row>
     <row r="5" spans="1:10">
-      <c r="C5" s="25" t="s">
+      <c r="C5" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="25"/>
-      <c r="E5" s="25"/>
-      <c r="F5" s="25"/>
+      <c r="D5" s="29"/>
+      <c r="E5" s="29"/>
+      <c r="F5" s="29"/>
     </row>
     <row r="6" spans="1:10">
-      <c r="C6" s="25" t="s">
+      <c r="C6" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="25"/>
-      <c r="E6" s="25"/>
-      <c r="F6" s="25"/>
+      <c r="D6" s="29"/>
+      <c r="E6" s="29"/>
+      <c r="F6" s="29"/>
     </row>
     <row r="7" spans="1:10" ht="20">
-      <c r="C7" s="26" t="s">
+      <c r="C7" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="D7" s="25"/>
-      <c r="E7" s="25"/>
-      <c r="F7" s="25"/>
+      <c r="D7" s="29"/>
+      <c r="E7" s="29"/>
+      <c r="F7" s="29"/>
     </row>
     <row r="8" spans="1:10">
-      <c r="C8" s="20" t="s">
+      <c r="C8" s="31" t="s">
         <v>23</v>
       </c>
-      <c r="D8" s="20"/>
-      <c r="E8" s="20"/>
-      <c r="F8" s="20"/>
+      <c r="D8" s="31"/>
+      <c r="E8" s="31"/>
+      <c r="F8" s="31"/>
     </row>
     <row r="10" spans="1:10" ht="29" customHeight="1">
       <c r="B10" s="10"/>
@@ -938,133 +938,133 @@
     </row>
     <row r="14" spans="1:10" ht="20" customHeight="1">
       <c r="A14" s="1"/>
-      <c r="B14" s="30" t="s">
+      <c r="B14" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="C14" s="31"/>
+      <c r="C14" s="24"/>
       <c r="D14" s="17"/>
       <c r="E14" s="4"/>
       <c r="F14" s="5"/>
     </row>
     <row r="15" spans="1:10" ht="19" customHeight="1">
       <c r="A15" s="1"/>
-      <c r="B15" s="22" t="s">
+      <c r="B15" s="33" t="s">
         <v>10</v>
       </c>
-      <c r="C15" s="22" t="s">
+      <c r="C15" s="33" t="s">
         <v>11</v>
       </c>
-      <c r="D15" s="22"/>
+      <c r="D15" s="33"/>
       <c r="E15" s="18"/>
       <c r="F15" s="5"/>
     </row>
     <row r="16" spans="1:10" ht="19" customHeight="1">
       <c r="A16" s="1"/>
-      <c r="B16" s="22"/>
-      <c r="C16" s="22" t="s">
+      <c r="B16" s="33"/>
+      <c r="C16" s="33" t="s">
         <v>12</v>
       </c>
-      <c r="D16" s="22"/>
+      <c r="D16" s="33"/>
       <c r="E16" s="18"/>
       <c r="F16" s="5"/>
     </row>
     <row r="17" spans="1:9" ht="19" customHeight="1">
       <c r="A17" s="1"/>
-      <c r="B17" s="22"/>
-      <c r="C17" s="22" t="s">
+      <c r="B17" s="33"/>
+      <c r="C17" s="33" t="s">
         <v>15</v>
       </c>
-      <c r="D17" s="22"/>
+      <c r="D17" s="33"/>
       <c r="E17" s="18"/>
       <c r="F17" s="5"/>
     </row>
     <row r="18" spans="1:9" ht="19" customHeight="1">
       <c r="A18" s="1"/>
-      <c r="B18" s="22"/>
-      <c r="C18" s="22" t="s">
+      <c r="B18" s="33"/>
+      <c r="C18" s="33" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="22"/>
+      <c r="D18" s="33"/>
       <c r="E18" s="18"/>
       <c r="F18" s="5"/>
     </row>
     <row r="19" spans="1:9">
-      <c r="B19" s="32" t="s">
+      <c r="B19" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="C19" s="32"/>
-      <c r="D19" s="32"/>
-      <c r="E19" s="32"/>
-      <c r="F19" s="32"/>
+      <c r="C19" s="25"/>
+      <c r="D19" s="25"/>
+      <c r="E19" s="25"/>
+      <c r="F19" s="25"/>
     </row>
     <row r="20" spans="1:9">
-      <c r="B20" s="29" t="s">
+      <c r="B20" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="C20" s="29"/>
-      <c r="D20" s="29"/>
-      <c r="E20" s="29"/>
-      <c r="F20" s="29"/>
+      <c r="C20" s="22"/>
+      <c r="D20" s="22"/>
+      <c r="E20" s="22"/>
+      <c r="F20" s="22"/>
     </row>
     <row r="21" spans="1:9">
-      <c r="B21" s="29" t="s">
+      <c r="B21" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="C21" s="29"/>
-      <c r="D21" s="29"/>
-      <c r="E21" s="29"/>
-      <c r="F21" s="29"/>
+      <c r="C21" s="22"/>
+      <c r="D21" s="22"/>
+      <c r="E21" s="22"/>
+      <c r="F21" s="22"/>
     </row>
     <row r="22" spans="1:9">
-      <c r="B22" s="29" t="s">
+      <c r="B22" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="C22" s="29"/>
-      <c r="D22" s="29"/>
-      <c r="E22" s="29"/>
-      <c r="F22" s="29"/>
+      <c r="C22" s="22"/>
+      <c r="D22" s="22"/>
+      <c r="E22" s="22"/>
+      <c r="F22" s="22"/>
     </row>
     <row r="23" spans="1:9">
-      <c r="B23" s="28" t="s">
+      <c r="B23" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="C23" s="28"/>
-      <c r="D23" s="28"/>
-      <c r="E23" s="28"/>
-      <c r="F23" s="28"/>
+      <c r="C23" s="21"/>
+      <c r="D23" s="21"/>
+      <c r="E23" s="21"/>
+      <c r="F23" s="21"/>
     </row>
     <row r="24" spans="1:9">
-      <c r="B24" s="29" t="s">
+      <c r="B24" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="C24" s="29"/>
-      <c r="D24" s="29"/>
-      <c r="E24" s="29"/>
-      <c r="F24" s="29"/>
+      <c r="C24" s="22"/>
+      <c r="D24" s="22"/>
+      <c r="E24" s="22"/>
+      <c r="F24" s="22"/>
       <c r="G24" s="19"/>
       <c r="H24" s="19"/>
       <c r="I24" s="19"/>
     </row>
     <row r="25" spans="1:9">
-      <c r="B25" s="29" t="s">
+      <c r="B25" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="C25" s="29"/>
-      <c r="D25" s="29"/>
-      <c r="E25" s="29"/>
-      <c r="F25" s="29"/>
+      <c r="C25" s="22"/>
+      <c r="D25" s="22"/>
+      <c r="E25" s="22"/>
+      <c r="F25" s="22"/>
       <c r="G25" s="19"/>
       <c r="H25" s="19"/>
       <c r="I25" s="19"/>
     </row>
     <row r="26" spans="1:9">
-      <c r="B26" s="29" t="s">
+      <c r="B26" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="C26" s="29"/>
-      <c r="D26" s="29"/>
-      <c r="E26" s="29"/>
-      <c r="F26" s="29"/>
+      <c r="C26" s="22"/>
+      <c r="D26" s="22"/>
+      <c r="E26" s="22"/>
+      <c r="F26" s="22"/>
     </row>
     <row r="27" spans="1:9">
       <c r="B27" s="19"/>
@@ -1074,34 +1074,46 @@
       <c r="F27" s="19"/>
     </row>
     <row r="28" spans="1:9">
-      <c r="B28" s="27" t="s">
+      <c r="B28" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="C28" s="27"/>
-      <c r="D28" s="27"/>
-      <c r="E28" s="27"/>
-      <c r="F28" s="27"/>
+      <c r="C28" s="20"/>
+      <c r="D28" s="20"/>
+      <c r="E28" s="20"/>
+      <c r="F28" s="20"/>
     </row>
     <row r="29" spans="1:9" ht="20" customHeight="1">
-      <c r="B29" s="33" t="s">
+      <c r="B29" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="C29" s="33"/>
-      <c r="D29" s="33"/>
-      <c r="E29" s="33"/>
-      <c r="F29" s="33"/>
+      <c r="C29" s="26"/>
+      <c r="D29" s="26"/>
+      <c r="E29" s="26"/>
+      <c r="F29" s="26"/>
     </row>
     <row r="30" spans="1:9">
-      <c r="B30" s="27" t="s">
+      <c r="B30" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="C30" s="27"/>
-      <c r="D30" s="27"/>
-      <c r="E30" s="27"/>
-      <c r="F30" s="27"/>
+      <c r="C30" s="20"/>
+      <c r="D30" s="20"/>
+      <c r="E30" s="20"/>
+      <c r="F30" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="C8:F8"/>
+    <mergeCell ref="A3:F3"/>
+    <mergeCell ref="B15:B18"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="D2:F2"/>
+    <mergeCell ref="C4:F4"/>
+    <mergeCell ref="C5:F5"/>
+    <mergeCell ref="C6:F6"/>
+    <mergeCell ref="C7:F7"/>
     <mergeCell ref="B30:F30"/>
     <mergeCell ref="B23:F23"/>
     <mergeCell ref="B26:F26"/>
@@ -1114,18 +1126,6 @@
     <mergeCell ref="B25:F25"/>
     <mergeCell ref="B19:F19"/>
     <mergeCell ref="B29:F29"/>
-    <mergeCell ref="D2:F2"/>
-    <mergeCell ref="C4:F4"/>
-    <mergeCell ref="C5:F5"/>
-    <mergeCell ref="C6:F6"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="C8:F8"/>
-    <mergeCell ref="A3:F3"/>
-    <mergeCell ref="B15:B18"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="C18:D18"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <hyperlinks>
